--- a/Vanessa Bach League.xlsx
+++ b/Vanessa Bach League.xlsx
@@ -773,7 +773,7 @@
       </c>
       <c r="G3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -805,7 +805,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O65" si="0">SUM(C3:M3)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
       </c>
       <c r="G4">
         <f>VLOOKUP(B4,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <f>VLOOKUP(B4,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -861,11 +861,11 @@
       </c>
       <c r="N4" t="str">
         <f>VLOOKUP(B4,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
       </c>
       <c r="G5">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -925,7 +925,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="G8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G9">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="G12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="G13">
         <f>VLOOKUP(B13,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <f>VLOOKUP(B13,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="G15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G16">
         <f>VLOOKUP(B16,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <f>VLOOKUP(B16,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="N16" t="str">
         <f>VLOOKUP(B16,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G17">
         <f>VLOOKUP(B17,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <f>VLOOKUP(B17,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="G18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="G24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="G26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="G28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="G30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="G32">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G33">
         <f>VLOOKUP(B33,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <f>VLOOKUP(B33,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="G34">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="G35">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G38">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="G40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="N41" t="str">
         <f>VLOOKUP(B41,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="G42">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="G43">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H43">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="G47">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="G49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="G51">
         <f>VLOOKUP(B51,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H51">
         <f>VLOOKUP(B51,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3681,11 +3681,11 @@
       </c>
       <c r="N51" t="str">
         <f>VLOOKUP(B51,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="G53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="G54">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="G55">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="G56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="G60">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="G62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="G64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,6,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4610,7 +4610,7 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4874,7 +4874,7 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>130</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>35</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>35</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>80</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>120</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>35</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Vanessa Bach League.xlsx
+++ b/Vanessa Bach League.xlsx
@@ -777,7 +777,7 @@
       </c>
       <c r="H3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -805,7 +805,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O65" si="0">SUM(C3:M3)</f>
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       </c>
       <c r="H5">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -921,11 +921,11 @@
       </c>
       <c r="N5" t="str">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="H9">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="N9" t="str">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="N13" t="str">
         <f>VLOOKUP(B13,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="N17" t="str">
         <f>VLOOKUP(B17,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="H20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="H23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="H26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H32">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I32">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="N32" t="str">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="N33" t="str">
         <f>VLOOKUP(B33,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="H34">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I34">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2661,11 +2661,11 @@
       </c>
       <c r="N34" t="str">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H35">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I35">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2721,11 +2721,11 @@
       </c>
       <c r="N35" t="str">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H38">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I38">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="N38" t="str">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="H40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H42">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I42">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3141,11 +3141,11 @@
       </c>
       <c r="N42" t="str">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="H43">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I43">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3201,11 +3201,11 @@
       </c>
       <c r="N43" t="str">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O43">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="H44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H47">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I47">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3441,11 +3441,11 @@
       </c>
       <c r="N47" t="str">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="H49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="H53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="H54">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I54">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3861,11 +3861,11 @@
       </c>
       <c r="N54" t="str">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="H55">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I55">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3921,11 +3921,11 @@
       </c>
       <c r="N55" t="str">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O55">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="H56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H60">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I60">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -4221,11 +4221,11 @@
       </c>
       <c r="N60" t="str">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O60">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="H62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="H64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,7,FALSE)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4634,7 @@
         <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4877,7 +4877,7 @@
         <v>170</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>90</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
         <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5229,7 +5229,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>40</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>130</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>45</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>45</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Vanessa Bach League.xlsx
+++ b/Vanessa Bach League.xlsx
@@ -781,7 +781,7 @@
       </c>
       <c r="I3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -801,11 +801,11 @@
       </c>
       <c r="N3" t="str">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O65" si="0">SUM(C3:M3)</f>
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -1221,11 +1221,11 @@
       </c>
       <c r="N10" t="str">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="N12" t="str">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="I15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1681,11 +1681,11 @@
       </c>
       <c r="I18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1741,11 +1741,11 @@
       </c>
       <c r="I19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="I20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="I23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="N23" t="str">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="N24" t="str">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2161,11 +2161,11 @@
       </c>
       <c r="I26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2221,11 +2221,11 @@
       </c>
       <c r="I27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2281,11 +2281,11 @@
       </c>
       <c r="I28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="I30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="N30" t="str">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O30">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="N40" t="str">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3241,11 +3241,11 @@
       </c>
       <c r="I44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -3501,11 +3501,11 @@
       </c>
       <c r="N48" t="str">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3541,11 +3541,11 @@
       </c>
       <c r="I49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3781,11 +3781,11 @@
       </c>
       <c r="I53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="K53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="I56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4081,11 +4081,11 @@
       </c>
       <c r="I58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="I62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
@@ -4341,11 +4341,11 @@
       </c>
       <c r="N62" t="str">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4441,11 +4441,11 @@
       </c>
       <c r="I64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,8,FALSE)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4880,10 +4880,10 @@
         <v>75</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>45</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>140</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5408,10 +5408,10 @@
         <v>105</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5540,10 +5540,10 @@
         <v>70</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J23">
         <v>0</v>

--- a/Vanessa Bach League.xlsx
+++ b/Vanessa Bach League.xlsx
@@ -1089,7 +1089,7 @@
       </c>
       <c r="K8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="J15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="J18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="K19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="K20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="N20" t="str">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="J26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="K27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -2301,11 +2301,11 @@
       </c>
       <c r="N28" t="str">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="J44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="J49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="K53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="L53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="K56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -3981,11 +3981,11 @@
       </c>
       <c r="N56" t="str">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
-        <v>Still in it to Win it</v>
+        <v>Eliminated</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="J58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="J64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,9,FALSE)</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4886,7 +4886,7 @@
         <v>95</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5414,7 +5414,7 @@
         <v>115</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5543,10 +5543,10 @@
         <v>105</v>
       </c>
       <c r="I23">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K23">
         <v>0</v>

--- a/Vanessa Bach League.xlsx
+++ b/Vanessa Bach League.xlsx
@@ -1809,7 +1809,7 @@
       </c>
       <c r="K20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="K56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,10,FALSE)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>750</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4886,7 +4886,7 @@
         <v>95</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>0</v>

--- a/Vanessa Bach League.xlsx
+++ b/Vanessa Bach League.xlsx
@@ -793,7 +793,7 @@
       </c>
       <c r="L3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M3">
         <f>VLOOKUP(B3,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -805,7 +805,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O65" si="0">SUM(C3:M3)</f>
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="L4">
         <f>VLOOKUP(B4,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <f>VLOOKUP(B4,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -865,7 +865,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
       </c>
       <c r="L5">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <f>VLOOKUP(B5,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -925,7 +925,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="L7">
         <f>VLOOKUP(B7,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <f>VLOOKUP(B7,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="M8">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N8" t="str">
         <f>VLOOKUP(B8,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="L9">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <f>VLOOKUP(B9,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="L10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <f>VLOOKUP(B10,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="L12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M12">
         <f>VLOOKUP(B12,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L13">
         <f>VLOOKUP(B13,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <f>VLOOKUP(B13,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="L14">
         <f>VLOOKUP(B14,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M14">
         <f>VLOOKUP(B14,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="M15">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N15" t="str">
         <f>VLOOKUP(B15,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="L16">
         <f>VLOOKUP(B16,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <f>VLOOKUP(B16,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="L17">
         <f>VLOOKUP(B17,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <f>VLOOKUP(B17,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="M18">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N18" t="str">
         <f>VLOOKUP(B18,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="M19">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N19" t="str">
         <f>VLOOKUP(B19,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="L20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M20">
         <f>VLOOKUP(B20,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="L22">
         <f>VLOOKUP(B22,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M22">
         <f>VLOOKUP(B22,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="L23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M23">
         <f>VLOOKUP(B23,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="L24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <f>VLOOKUP(B24,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="M26">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N26" t="str">
         <f>VLOOKUP(B26,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="M27">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N27" t="str">
         <f>VLOOKUP(B27,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="L28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M28">
         <f>VLOOKUP(B28,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="L30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <f>VLOOKUP(B30,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="L31">
         <f>VLOOKUP(B31,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M31">
         <f>VLOOKUP(B31,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="L32">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <f>VLOOKUP(B32,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="L33">
         <f>VLOOKUP(B33,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <f>VLOOKUP(B33,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="L34">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <f>VLOOKUP(B34,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="L35">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M35">
         <f>VLOOKUP(B35,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="L36">
         <f>VLOOKUP(B36,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M36">
         <f>VLOOKUP(B36,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="L37">
         <f>VLOOKUP(B37,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M37">
         <f>VLOOKUP(B37,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="L38">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M38">
         <f>VLOOKUP(B38,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="L40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M40">
         <f>VLOOKUP(B40,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L41">
         <f>VLOOKUP(B41,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M41">
         <f>VLOOKUP(B41,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="L42">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M42">
         <f>VLOOKUP(B42,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="L43">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M43">
         <f>VLOOKUP(B43,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="M44">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N44" t="str">
         <f>VLOOKUP(B44,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="L45">
         <f>VLOOKUP(B45,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M45">
         <f>VLOOKUP(B45,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="L46">
         <f>VLOOKUP(B46,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46">
         <f>VLOOKUP(B46,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="L47">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M47">
         <f>VLOOKUP(B47,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="L48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M48">
         <f>VLOOKUP(B48,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="M49">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N49" t="str">
         <f>VLOOKUP(B49,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="L51">
         <f>VLOOKUP(B51,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M51">
         <f>VLOOKUP(B51,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="M53">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N53" t="str">
         <f>VLOOKUP(B53,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
-        <v>730</v>
+        <v>765</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="L54">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M54">
         <f>VLOOKUP(B54,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="L55">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M55">
         <f>VLOOKUP(B55,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="L56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M56">
         <f>VLOOKUP(B56,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="M58">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N58" t="str">
         <f>VLOOKUP(B58,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="L60">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M60">
         <f>VLOOKUP(B60,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="L61">
         <f>VLOOKUP(B61,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61">
         <f>VLOOKUP(B61,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="L62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M62">
         <f>VLOOKUP(B62,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="M64">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N64" t="str">
         <f>VLOOKUP(B64,'Contestants Points Weekly'!$A$2:$N$24,14,FALSE)</f>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="L65">
         <f>VLOOKUP(B65,'Contestants Points Weekly'!$A$2:$N$24,11,FALSE)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M65">
         <f>VLOOKUP(B65,'Contestants Points Weekly'!$A$2:$N$24,12,FALSE)</f>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
         <v>76</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s">
         <v>79</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>0</v>
